--- a/results/FrequencyTables/27068471_EnvV4.xlsx
+++ b/results/FrequencyTables/27068471_EnvV4.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.46</v>
+        <v>0.438532441713356</v>
       </c>
       <c r="C2">
-        <v>0.16</v>
+        <v>0.349756009398157</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0.701066329296946</v>
       </c>
       <c r="E2">
-        <v>0.36</v>
+        <v>0.377335984095427</v>
       </c>
       <c r="F2">
-        <v>0.67</v>
+        <v>0.495897343213447</v>
       </c>
       <c r="G2">
-        <v>0.69</v>
+        <v>0.401843484547262</v>
       </c>
       <c r="H2">
-        <v>0.03</v>
+        <v>0.110862100126514</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.242074823784565</v>
       </c>
       <c r="J2">
-        <v>0.25</v>
+        <v>0.536707030544009</v>
       </c>
       <c r="K2">
-        <v>0.58</v>
+        <v>0.7442617025122</v>
       </c>
       <c r="L2">
-        <v>0.98</v>
+        <v>0.949864449665643</v>
       </c>
       <c r="M2">
-        <v>0.15</v>
+        <v>0.0982107355864811</v>
       </c>
       <c r="N2">
-        <v>0.97</v>
+        <v>0.824001445870233</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.935188866799205</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.0458702331465751</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.994686426893186</v>
       </c>
       <c r="R2">
-        <v>0.28</v>
+        <v>0.170468100487981</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0323513464666546</v>
       </c>
       <c r="T2">
-        <v>0.24</v>
+        <v>0.196060003614676</v>
       </c>
       <c r="U2">
-        <v>0.09</v>
+        <v>0.39349358395084</v>
       </c>
       <c r="V2">
-        <v>0.86</v>
+        <v>0.685920838604735</v>
       </c>
       <c r="W2">
-        <v>0.72</v>
+        <v>0.45844930417495</v>
       </c>
       <c r="X2">
-        <v>0.63</v>
+        <v>0.417711910356046</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.0703415868425809</v>
       </c>
       <c r="C3">
-        <v>0.66</v>
+        <v>0.349322248328213</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.0477498644496656</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.0935116573287547</v>
       </c>
       <c r="F3">
-        <v>0.11</v>
+        <v>0.0958973432134466</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.0371950117476956</v>
       </c>
       <c r="H3">
-        <v>0.14</v>
+        <v>0.0444605096692572</v>
       </c>
       <c r="I3">
-        <v>0.15</v>
+        <v>0.277968552322429</v>
       </c>
       <c r="J3">
-        <v>0.12</v>
+        <v>0.0572564612326044</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.0339056569672872</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0.015723838785469</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>0.0923188143864088</v>
       </c>
       <c r="N3">
-        <v>0.01</v>
+        <v>0.0450388577625158</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00325320802457979</v>
       </c>
       <c r="P3">
-        <v>0.99</v>
+        <v>0.886390746430508</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00144587023314658</v>
       </c>
       <c r="R3">
-        <v>0.69</v>
+        <v>0.803036327489608</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00126513645400325</v>
       </c>
       <c r="T3">
-        <v>0.01</v>
+        <v>0.0775347912524851</v>
       </c>
       <c r="U3">
-        <v>0.12</v>
+        <v>0.0906560636182903</v>
       </c>
       <c r="V3">
-        <v>0.02</v>
+        <v>0.0939815651545274</v>
       </c>
       <c r="W3">
-        <v>0.12</v>
+        <v>0.137176938369781</v>
       </c>
       <c r="X3">
-        <v>0.03</v>
+        <v>0.100741008494488</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.46</v>
+        <v>0.40433761069944</v>
       </c>
       <c r="C4">
-        <v>0.06</v>
+        <v>0.159118019157781</v>
       </c>
       <c r="D4">
-        <v>0.02</v>
+        <v>0.089390927164287</v>
       </c>
       <c r="E4">
-        <v>0.52</v>
+        <v>0.380227724561721</v>
       </c>
       <c r="F4">
-        <v>0.18</v>
+        <v>0.336273269474065</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0.407446231700705</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.114368335441894</v>
       </c>
       <c r="I4">
-        <v>0.64</v>
+        <v>0.379613229712633</v>
       </c>
       <c r="J4">
-        <v>0.63</v>
+        <v>0.359985541297669</v>
       </c>
       <c r="K4">
-        <v>0.29</v>
+        <v>0.0863545996746792</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0232062172420025</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.0590999457798663</v>
       </c>
       <c r="N4">
-        <v>0.02</v>
+        <v>0.109958431230797</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0569311404301464</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0157961322971263</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00137357672148925</v>
       </c>
       <c r="R4">
-        <v>0.02</v>
+        <v>0.00534971986264233</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00820531357310681</v>
       </c>
       <c r="T4">
-        <v>0.06</v>
+        <v>0.400578348093259</v>
       </c>
       <c r="U4">
-        <v>0.05</v>
+        <v>0.110392192300741</v>
       </c>
       <c r="V4">
-        <v>0.05</v>
+        <v>0.067955900957889</v>
       </c>
       <c r="W4">
-        <v>0.12</v>
+        <v>0.354635821435026</v>
       </c>
       <c r="X4">
-        <v>0.22</v>
+        <v>0.296584131574191</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06</v>
+        <v>0.0865714802096512</v>
       </c>
       <c r="C5">
-        <v>0.12</v>
+        <v>0.141767576360022</v>
       </c>
       <c r="D5">
-        <v>0.07</v>
+        <v>0.161720585577444</v>
       </c>
       <c r="E5">
-        <v>0.08</v>
+        <v>0.148888487258269</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.0718597505873848</v>
       </c>
       <c r="G5">
-        <v>0.15</v>
+        <v>0.153515272004338</v>
       </c>
       <c r="H5">
-        <v>0.74</v>
+        <v>0.730092174227363</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0.100271100668715</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0460148201698898</v>
       </c>
       <c r="K5">
-        <v>0.12</v>
+        <v>0.135478040845834</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.011205494306886</v>
       </c>
       <c r="M5">
-        <v>0.63</v>
+        <v>0.750298210735586</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0209289716247967</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00455449123441171</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0518705946141334</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00249412615217784</v>
       </c>
       <c r="R5">
-        <v>0.01</v>
+        <v>0.0209289716247967</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.958142056750407</v>
       </c>
       <c r="T5">
-        <v>0.69</v>
+        <v>0.325826857039581</v>
       </c>
       <c r="U5">
-        <v>0.74</v>
+        <v>0.405349719862642</v>
       </c>
       <c r="V5">
-        <v>0.07</v>
+        <v>0.152069401771191</v>
       </c>
       <c r="W5">
-        <v>0.04</v>
+        <v>0.0495933489969275</v>
       </c>
       <c r="X5">
-        <v>0.12</v>
+        <v>0.184709922284475</v>
       </c>
     </row>
   </sheetData>
